--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eleve\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Language app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF34B2F-26A5-45CC-A855-CAA0EC518346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFDE7BA-091E-4779-AB9C-23115C130ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{2287B112-F3D3-4A96-AEA5-238543F1AE3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2287B112-F3D3-4A96-AEA5-238543F1AE3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>hello</t>
   </si>
@@ -44,12 +44,6 @@
     <t>bonjour</t>
   </si>
   <si>
-    <t>goodbye</t>
-  </si>
-  <si>
-    <t>au revoir</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -66,12 +60,6 @@
   </si>
   <si>
     <t>rouge</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>voiture</t>
   </si>
 </sst>
 </file>
@@ -443,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D761EF05-86AE-4B50-B0A1-93BEAB002902}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,42 +449,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
